--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2968,6 +2968,41 @@
         <v>1350700</v>
       </c>
     </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="I75" t="n">
+        <v>255600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3003,6 +3003,41 @@
         <v>255600</v>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1268500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3038,6 +3038,41 @@
         <v>1268500</v>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I77" t="n">
+        <v>4051400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3073,6 +3073,41 @@
         <v>4051400</v>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1107100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3108,6 +3108,41 @@
         <v>1107100</v>
       </c>
     </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1413600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3143,6 +3143,41 @@
         <v>1413600</v>
       </c>
     </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1145500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3178,6 +3178,41 @@
         <v>1145500</v>
       </c>
     </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1271500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3213,6 +3213,41 @@
         <v>1271500</v>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1192400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3248,6 +3248,41 @@
         <v>1192400</v>
       </c>
     </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I83" t="n">
+        <v>819700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3283,6 +3283,41 @@
         <v>819700</v>
       </c>
     </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="I84" t="n">
+        <v>800700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3318,6 +3318,41 @@
         <v>800700</v>
       </c>
     </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I85" t="n">
+        <v>656600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3353,6 +3353,41 @@
         <v>656600</v>
       </c>
     </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I86" t="n">
+        <v>472900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3388,6 +3388,76 @@
         <v>472900</v>
       </c>
     </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1096200</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1103900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3458,6 +3458,76 @@
         <v>1103900</v>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="I89" t="n">
+        <v>912100</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1261100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3528,6 +3528,41 @@
         <v>1261100</v>
       </c>
     </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="I91" t="n">
+        <v>2215900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3563,6 +3563,41 @@
         <v>2215900</v>
       </c>
     </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="I92" t="n">
+        <v>839800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3598,6 +3598,41 @@
         <v>839800</v>
       </c>
     </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I93" t="n">
+        <v>642300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3633,6 +3633,41 @@
         <v>642300</v>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1712300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3668,6 +3668,76 @@
         <v>1712300</v>
       </c>
     </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="I95" t="n">
+        <v>652300</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I96" t="n">
+        <v>745400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3738,6 +3738,41 @@
         <v>745400</v>
       </c>
     </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1043700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3773,6 +3773,41 @@
         <v>1043700</v>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I98" t="n">
+        <v>2532100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1255,11 +1255,11 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1574985600</v>
+        <v>1574035200</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1273,28 +1273,28 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="F26" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="G26" t="n">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="H26" t="n">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="I26" t="n">
-        <v>1030000</v>
+        <v>5107800</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1575244800</v>
+        <v>1574121600</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1308,28 +1308,28 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="F27" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="G27" t="n">
-        <v>1.89</v>
+        <v>1.82</v>
       </c>
       <c r="H27" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="I27" t="n">
-        <v>2085500</v>
+        <v>2032800</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1575331200</v>
+        <v>1574208000</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1343,28 +1343,28 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="F28" t="n">
-        <v>1.99</v>
+        <v>1.87</v>
       </c>
       <c r="G28" t="n">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="H28" t="n">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="I28" t="n">
-        <v>4773800</v>
+        <v>3644600</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1575417600</v>
+        <v>1574294400</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1378,28 +1378,28 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="F29" t="n">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="G29" t="n">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="H29" t="n">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="I29" t="n">
-        <v>2692300</v>
+        <v>6461300</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1575504000</v>
+        <v>1574380800</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1413,28 +1413,28 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="F30" t="n">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="G30" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="H30" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="I30" t="n">
-        <v>2193500</v>
+        <v>2616400</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1575590400</v>
+        <v>1574640000</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1.99</v>
+        <v>1.89</v>
       </c>
       <c r="F31" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="G31" t="n">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="H31" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="I31" t="n">
-        <v>2608700</v>
+        <v>4421000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1575849600</v>
+        <v>1574726400</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-11-26</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1483,28 +1483,28 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="G32" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H32" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="I32" t="n">
-        <v>1516600</v>
+        <v>2286900</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1575936000</v>
+        <v>1574812800</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1518,28 +1518,28 @@
         </is>
       </c>
       <c r="E33" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="F33" t="n">
         <v>1.97</v>
       </c>
-      <c r="F33" t="n">
-        <v>2.01</v>
-      </c>
       <c r="G33" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="I33" t="n">
-        <v>1969700</v>
+        <v>5141500</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1576022400</v>
+        <v>1574899200</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1553,28 +1553,28 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="F34" t="n">
-        <v>2.05</v>
+        <v>1.96</v>
       </c>
       <c r="G34" t="n">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="H34" t="n">
-        <v>2.01</v>
+        <v>1.92</v>
       </c>
       <c r="I34" t="n">
-        <v>4279500</v>
+        <v>2619700</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1576108800</v>
+        <v>1574985600</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1588,28 +1588,28 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="F35" t="n">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="G35" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="H35" t="n">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="I35" t="n">
-        <v>1635200</v>
+        <v>1030000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1576195200</v>
+        <v>1575244800</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1623,28 +1623,28 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2.01</v>
+        <v>1.92</v>
       </c>
       <c r="F36" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="G36" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="H36" t="n">
-        <v>1.99</v>
+        <v>1.91</v>
       </c>
       <c r="I36" t="n">
-        <v>1523500</v>
+        <v>2085500</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1576454400</v>
+        <v>1575331200</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1658,28 +1658,28 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1.99</v>
+        <v>1.91</v>
       </c>
       <c r="F37" t="n">
         <v>1.99</v>
       </c>
       <c r="G37" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="H37" t="n">
         <v>1.99</v>
       </c>
       <c r="I37" t="n">
-        <v>1578100</v>
+        <v>4773800</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1576540800</v>
+        <v>1575417600</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1693,28 +1693,28 @@
         </is>
       </c>
       <c r="E38" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G38" t="n">
         <v>1.97</v>
       </c>
-      <c r="F38" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1.96</v>
-      </c>
       <c r="H38" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="I38" t="n">
-        <v>861600</v>
+        <v>2692300</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1576627200</v>
+        <v>1575504000</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1728,28 +1728,28 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1.96</v>
+        <v>2.03</v>
       </c>
       <c r="F39" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="G39" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="H39" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="I39" t="n">
-        <v>1482500</v>
+        <v>2193500</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1576713600</v>
+        <v>1575590400</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1763,28 +1763,28 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="F40" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="G40" t="n">
         <v>1.96</v>
       </c>
       <c r="H40" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="I40" t="n">
-        <v>1937700</v>
+        <v>2608700</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1576800000</v>
+        <v>1575849600</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1798,28 +1798,28 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="F41" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="G41" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="H41" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="I41" t="n">
-        <v>1795200</v>
+        <v>1516600</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1577059200</v>
+        <v>1575936000</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1833,28 +1833,28 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="F42" t="n">
-        <v>1.96</v>
+        <v>2.01</v>
       </c>
       <c r="G42" t="n">
-        <v>1.89</v>
+        <v>1.97</v>
       </c>
       <c r="H42" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>3487700</v>
+        <v>1969700</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1577145600</v>
+        <v>1576022400</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1868,28 +1868,28 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="F43" t="n">
-        <v>1.97</v>
+        <v>2.05</v>
       </c>
       <c r="G43" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="H43" t="n">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="I43" t="n">
-        <v>360400</v>
+        <v>4279500</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1577318400</v>
+        <v>1576108800</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1903,28 +1903,28 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="G44" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="H44" t="n">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="I44" t="n">
-        <v>394500</v>
+        <v>1635200</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1577404800</v>
+        <v>1576195200</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2019-12-27</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1938,28 +1938,28 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1.92</v>
+        <v>2.01</v>
       </c>
       <c r="F45" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="G45" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="H45" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="I45" t="n">
-        <v>451100</v>
+        <v>1523500</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1577664000</v>
+        <v>1576454400</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1973,28 +1973,28 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="F46" t="n">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="G46" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="H46" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="I46" t="n">
-        <v>604700</v>
+        <v>1578100</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1577750400</v>
+        <v>1576540800</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2008,28 +2008,28 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="F47" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="G47" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="H47" t="n">
-        <v>1.88</v>
+        <v>1.97</v>
       </c>
       <c r="I47" t="n">
-        <v>649700</v>
+        <v>861600</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1577923200</v>
+        <v>1576627200</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2043,28 +2043,28 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
       <c r="F48" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="G48" t="n">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
       <c r="H48" t="n">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="I48" t="n">
-        <v>2172900</v>
+        <v>1482500</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1578009600</v>
+        <v>1576713600</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="F49" t="n">
-        <v>1.91</v>
+        <v>1.99</v>
       </c>
       <c r="G49" t="n">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
       <c r="H49" t="n">
-        <v>1.89</v>
+        <v>1.97</v>
       </c>
       <c r="I49" t="n">
-        <v>1083500</v>
+        <v>1937700</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1578268800</v>
+        <v>1576800000</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2113,28 +2113,28 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1.88</v>
+        <v>1.97</v>
       </c>
       <c r="F50" t="n">
-        <v>1.88</v>
+        <v>1.97</v>
       </c>
       <c r="G50" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="H50" t="n">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="I50" t="n">
-        <v>801900</v>
+        <v>1795200</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1578355200</v>
+        <v>1577059200</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2148,28 +2148,28 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="F51" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="G51" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="H51" t="n">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="I51" t="n">
-        <v>2008900</v>
+        <v>3487700</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1578441600</v>
+        <v>1577145600</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2183,28 +2183,28 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="F52" t="n">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="G52" t="n">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="H52" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="I52" t="n">
-        <v>995500</v>
+        <v>360400</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1578528000</v>
+        <v>1577318400</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2218,28 +2218,28 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="F53" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="G53" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="H53" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="I53" t="n">
-        <v>403700</v>
+        <v>394500</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1578614400</v>
+        <v>1577404800</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2019-12-27</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2253,28 +2253,28 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="F54" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="G54" t="n">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="H54" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="I54" t="n">
-        <v>873300</v>
+        <v>451100</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1578873600</v>
+        <v>1577664000</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2288,28 +2288,28 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="F55" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="G55" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="H55" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="I55" t="n">
-        <v>315600</v>
+        <v>604700</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1578960000</v>
+        <v>1577750400</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2323,28 +2323,28 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="F56" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G56" t="n">
         <v>1.87</v>
       </c>
-      <c r="G56" t="n">
-        <v>1.83</v>
-      </c>
       <c r="H56" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="I56" t="n">
-        <v>616700</v>
+        <v>649700</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1579046400</v>
+        <v>1577923200</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2358,28 +2358,28 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="F57" t="n">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="G57" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="H57" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="I57" t="n">
-        <v>109100</v>
+        <v>2172900</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1579132800</v>
+        <v>1578009600</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2393,28 +2393,28 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="F58" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="G58" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="H58" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="I58" t="n">
-        <v>664100</v>
+        <v>1083500</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1579219200</v>
+        <v>1578268800</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-01-06</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2434,22 +2434,22 @@
         <v>1.88</v>
       </c>
       <c r="G59" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H59" t="n">
         <v>1.85</v>
       </c>
-      <c r="H59" t="n">
-        <v>1.87</v>
-      </c>
       <c r="I59" t="n">
-        <v>150300</v>
+        <v>801900</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1579478400</v>
+        <v>1578355200</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2463,28 +2463,28 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="F60" t="n">
         <v>1.87</v>
       </c>
       <c r="G60" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="H60" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="I60" t="n">
-        <v>112700</v>
+        <v>2008900</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1579564800</v>
+        <v>1578441600</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2498,28 +2498,28 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="F61" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="G61" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="H61" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="I61" t="n">
-        <v>1183000</v>
+        <v>995500</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1579651200</v>
+        <v>1578528000</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2533,28 +2533,28 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="F62" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="G62" t="n">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="H62" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="I62" t="n">
-        <v>1130400</v>
+        <v>403700</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1579737600</v>
+        <v>1578614400</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2568,28 +2568,28 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="F63" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="G63" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="H63" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="I63" t="n">
-        <v>737100</v>
+        <v>873300</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1579824000</v>
+        <v>1578873600</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2603,28 +2603,28 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="F64" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="G64" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="H64" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="I64" t="n">
-        <v>512500</v>
+        <v>315600</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1580169600</v>
+        <v>1578960000</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2638,28 +2638,28 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1.76</v>
+        <v>1.86</v>
       </c>
       <c r="F65" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="G65" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="H65" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="I65" t="n">
-        <v>397600</v>
+        <v>616700</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1580256000</v>
+        <v>1579046400</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2673,28 +2673,28 @@
         </is>
       </c>
       <c r="E66" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H66" t="n">
         <v>1.83</v>
       </c>
-      <c r="F66" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="G66" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1.78</v>
-      </c>
       <c r="I66" t="n">
-        <v>26000</v>
+        <v>109100</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1580342400</v>
+        <v>1579132800</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2708,28 +2708,28 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="F67" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="G67" t="n">
         <v>1.82</v>
       </c>
-      <c r="G67" t="n">
-        <v>1.77</v>
-      </c>
       <c r="H67" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="I67" t="n">
-        <v>285700</v>
+        <v>664100</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1580428800</v>
+        <v>1579219200</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2743,28 +2743,28 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="F68" t="n">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="G68" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="H68" t="n">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
       <c r="I68" t="n">
-        <v>514600</v>
+        <v>150300</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1580688000</v>
+        <v>1579478400</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2778,28 +2778,28 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1.74</v>
+        <v>1.87</v>
       </c>
       <c r="F69" t="n">
-        <v>1.74</v>
+        <v>1.87</v>
       </c>
       <c r="G69" t="n">
-        <v>1.69</v>
+        <v>1.84</v>
       </c>
       <c r="H69" t="n">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="I69" t="n">
-        <v>763500</v>
+        <v>112700</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1580774400</v>
+        <v>1579564800</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2813,28 +2813,28 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1.71</v>
+        <v>1.84</v>
       </c>
       <c r="F70" t="n">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="G70" t="n">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="H70" t="n">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="I70" t="n">
-        <v>568500</v>
+        <v>1183000</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1580860800</v>
+        <v>1579651200</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2848,28 +2848,28 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="F71" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="G71" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="H71" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="I71" t="n">
-        <v>601200</v>
+        <v>1130400</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1580947200</v>
+        <v>1579737600</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2883,28 +2883,28 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="F72" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="G72" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="H72" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="I72" t="n">
-        <v>1594600</v>
+        <v>737100</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1581033600</v>
+        <v>1579824000</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2918,28 +2918,28 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="F73" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H73" t="n">
         <v>1.8</v>
       </c>
-      <c r="G73" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1.72</v>
-      </c>
       <c r="I73" t="n">
-        <v>917500</v>
+        <v>512500</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1581292800</v>
+        <v>1580169600</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2953,28 +2953,28 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="F74" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="G74" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H74" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="I74" t="n">
-        <v>1350700</v>
+        <v>397600</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1581379200</v>
+        <v>1580256000</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2988,28 +2988,28 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="F75" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G75" t="n">
         <v>1.76</v>
       </c>
-      <c r="G75" t="n">
-        <v>1.71</v>
-      </c>
       <c r="H75" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="I75" t="n">
-        <v>255600</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1581465600</v>
+        <v>1580342400</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3023,28 +3023,28 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="F76" t="n">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="G76" t="n">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="H76" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="I76" t="n">
-        <v>1268500</v>
+        <v>285700</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1581552000</v>
+        <v>1580428800</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3058,28 +3058,28 @@
         </is>
       </c>
       <c r="E77" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="G77" t="n">
         <v>1.75</v>
       </c>
-      <c r="F77" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="G77" t="n">
-        <v>1.72</v>
-      </c>
       <c r="H77" t="n">
-        <v>1.93</v>
+        <v>1.77</v>
       </c>
       <c r="I77" t="n">
-        <v>4051400</v>
+        <v>514600</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1581638400</v>
+        <v>1580688000</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3093,28 +3093,28 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1.91</v>
+        <v>1.74</v>
       </c>
       <c r="F78" t="n">
-        <v>1.96</v>
+        <v>1.74</v>
       </c>
       <c r="G78" t="n">
-        <v>1.86</v>
+        <v>1.69</v>
       </c>
       <c r="H78" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="I78" t="n">
-        <v>1107100</v>
+        <v>763500</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1581897600</v>
+        <v>1580774400</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3128,28 +3128,28 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="F79" t="n">
-        <v>1.92</v>
+        <v>1.73</v>
       </c>
       <c r="G79" t="n">
-        <v>1.87</v>
+        <v>1.68</v>
       </c>
       <c r="H79" t="n">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="I79" t="n">
-        <v>1413600</v>
+        <v>568500</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1581984000</v>
+        <v>1580860800</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3163,28 +3163,28 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="F80" t="n">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="G80" t="n">
-        <v>1.81</v>
+        <v>1.69</v>
       </c>
       <c r="H80" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="I80" t="n">
-        <v>1145500</v>
+        <v>601200</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1582070400</v>
+        <v>1580947200</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3198,28 +3198,28 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1.84</v>
+        <v>1.73</v>
       </c>
       <c r="F81" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="G81" t="n">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="H81" t="n">
-        <v>1.89</v>
+        <v>1.76</v>
       </c>
       <c r="I81" t="n">
-        <v>1271500</v>
+        <v>1594600</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1582156800</v>
+        <v>1581033600</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3233,28 +3233,28 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="F82" t="n">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="G82" t="n">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="H82" t="n">
-        <v>1.89</v>
+        <v>1.72</v>
       </c>
       <c r="I82" t="n">
-        <v>1192400</v>
+        <v>917500</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1582243200</v>
+        <v>1581292800</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3268,28 +3268,28 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="F83" t="n">
-        <v>1.9</v>
+        <v>1.74</v>
       </c>
       <c r="G83" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="H83" t="n">
-        <v>1.9</v>
+        <v>1.74</v>
       </c>
       <c r="I83" t="n">
-        <v>819700</v>
+        <v>1350700</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1582502400</v>
+        <v>1581379200</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3303,28 +3303,28 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="F84" t="n">
-        <v>1.86</v>
+        <v>1.76</v>
       </c>
       <c r="G84" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="H84" t="n">
-        <v>1.84</v>
+        <v>1.71</v>
       </c>
       <c r="I84" t="n">
-        <v>800700</v>
+        <v>255600</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1582588800</v>
+        <v>1581465600</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3338,28 +3338,28 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="F85" t="n">
-        <v>1.86</v>
+        <v>1.76</v>
       </c>
       <c r="G85" t="n">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="H85" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="I85" t="n">
-        <v>656600</v>
+        <v>1268500</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1582675200</v>
+        <v>1581552000</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3373,28 +3373,28 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="F86" t="n">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="G86" t="n">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="H86" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="I86" t="n">
-        <v>472900</v>
+        <v>4051400</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1582761600</v>
+        <v>1581638400</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3408,28 +3408,28 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="F87" t="n">
-        <v>1.81</v>
+        <v>1.96</v>
       </c>
       <c r="G87" t="n">
-        <v>1.73</v>
+        <v>1.86</v>
       </c>
       <c r="H87" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="I87" t="n">
-        <v>1096200</v>
+        <v>1107100</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1582848000</v>
+        <v>1581897600</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3443,28 +3443,28 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="F88" t="n">
-        <v>1.78</v>
+        <v>1.92</v>
       </c>
       <c r="G88" t="n">
-        <v>1.63</v>
+        <v>1.87</v>
       </c>
       <c r="H88" t="n">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="I88" t="n">
-        <v>1103900</v>
+        <v>1413600</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1583107200</v>
+        <v>1581984000</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3478,28 +3478,28 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="F89" t="n">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="G89" t="n">
-        <v>1.6</v>
+        <v>1.81</v>
       </c>
       <c r="H89" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="I89" t="n">
-        <v>912100</v>
+        <v>1145500</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1583193600</v>
+        <v>1582070400</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3513,28 +3513,28 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1.64</v>
+        <v>1.84</v>
       </c>
       <c r="F90" t="n">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="G90" t="n">
-        <v>1.63</v>
+        <v>1.82</v>
       </c>
       <c r="H90" t="n">
-        <v>1.65</v>
+        <v>1.89</v>
       </c>
       <c r="I90" t="n">
-        <v>1261100</v>
+        <v>1271500</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1583280000</v>
+        <v>1582156800</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3548,28 +3548,28 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1.64</v>
+        <v>1.91</v>
       </c>
       <c r="F91" t="n">
-        <v>1.66</v>
+        <v>1.92</v>
       </c>
       <c r="G91" t="n">
-        <v>1.64</v>
+        <v>1.88</v>
       </c>
       <c r="H91" t="n">
-        <v>1.65</v>
+        <v>1.89</v>
       </c>
       <c r="I91" t="n">
-        <v>2215900</v>
+        <v>1192400</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1583366400</v>
+        <v>1582243200</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3583,28 +3583,28 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="F92" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="G92" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="H92" t="n">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="I92" t="n">
-        <v>839800</v>
+        <v>819700</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1583452800</v>
+        <v>1582502400</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3618,28 +3618,28 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="F93" t="n">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="G93" t="n">
-        <v>1.64</v>
+        <v>1.77</v>
       </c>
       <c r="H93" t="n">
-        <v>1.68</v>
+        <v>1.84</v>
       </c>
       <c r="I93" t="n">
-        <v>642300</v>
+        <v>800700</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1583712000</v>
+        <v>1582588800</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3653,28 +3653,28 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="F94" t="n">
-        <v>1.65</v>
+        <v>1.86</v>
       </c>
       <c r="G94" t="n">
-        <v>1.59</v>
+        <v>1.78</v>
       </c>
       <c r="H94" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="I94" t="n">
-        <v>1712300</v>
+        <v>656600</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1583798400</v>
+        <v>1582675200</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3688,28 +3688,28 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="F95" t="n">
-        <v>1.64</v>
+        <v>1.82</v>
       </c>
       <c r="G95" t="n">
-        <v>1.56</v>
+        <v>1.77</v>
       </c>
       <c r="H95" t="n">
-        <v>1.56</v>
+        <v>1.8</v>
       </c>
       <c r="I95" t="n">
-        <v>652300</v>
+        <v>472900</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1583884800</v>
+        <v>1582761600</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3723,28 +3723,28 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1.61</v>
+        <v>1.8</v>
       </c>
       <c r="F96" t="n">
-        <v>1.63</v>
+        <v>1.81</v>
       </c>
       <c r="G96" t="n">
-        <v>1.54</v>
+        <v>1.73</v>
       </c>
       <c r="H96" t="n">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="I96" t="n">
-        <v>745400</v>
+        <v>1096200</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1583971200</v>
+        <v>1582848000</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3758,53 +3758,368 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="F97" t="n">
-        <v>1.59</v>
+        <v>1.78</v>
       </c>
       <c r="G97" t="n">
-        <v>1.51</v>
+        <v>1.63</v>
       </c>
       <c r="H97" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="I97" t="n">
-        <v>1043700</v>
+        <v>1103900</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="I98" t="n">
+        <v>912100</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1261100</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="I100" t="n">
+        <v>2215900</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="I101" t="n">
+        <v>839800</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I102" t="n">
+        <v>642300</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1712300</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="I104" t="n">
+        <v>652300</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I105" t="n">
+        <v>745400</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1043700</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
         <v>1584057600</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t>2020-03-13</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>5293</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>AME</t>
-        </is>
-      </c>
-      <c r="E98" t="n">
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
         <v>1.5</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F107" t="n">
         <v>1.5</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G107" t="n">
         <v>1.37</v>
       </c>
-      <c r="H98" t="n">
+      <c r="H107" t="n">
         <v>1.37</v>
       </c>
-      <c r="I98" t="n">
+      <c r="I107" t="n">
         <v>2532100</v>
       </c>
     </row>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I107"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4123,6 +4123,41 @@
         <v>2532100</v>
       </c>
     </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I108" t="n">
+        <v>3870400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I108"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4158,6 +4158,41 @@
         <v>3870400</v>
       </c>
     </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1800200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4193,6 +4193,41 @@
         <v>1800200</v>
       </c>
     </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1691900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I110"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4228,6 +4228,41 @@
         <v>1691900</v>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1042000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4263,6 +4263,41 @@
         <v>1042000</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I112" t="n">
+        <v>855500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4298,6 +4298,41 @@
         <v>855500</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>496700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I113"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4333,6 +4333,41 @@
         <v>496700</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I114" t="n">
+        <v>707600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4368,6 +4368,41 @@
         <v>707600</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1519600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I115"/>
+  <dimension ref="A1:I116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4403,6 +4403,41 @@
         <v>1519600</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I116" t="n">
+        <v>386300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I116"/>
+  <dimension ref="A1:I117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4438,6 +4438,41 @@
         <v>386300</v>
       </c>
     </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I117" t="n">
+        <v>821600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I117"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4473,6 +4473,41 @@
         <v>821600</v>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I118" t="n">
+        <v>643700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4508,6 +4508,41 @@
         <v>643700</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1205300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I119"/>
+  <dimension ref="A1:I120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4543,6 +4543,41 @@
         <v>1205300</v>
       </c>
     </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1012600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I120"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4578,6 +4578,41 @@
         <v>1012600</v>
       </c>
     </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I121" t="n">
+        <v>974500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:I122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4613,6 +4613,41 @@
         <v>974500</v>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I122" t="n">
+        <v>853700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I122"/>
+  <dimension ref="A1:I123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4648,6 +4648,41 @@
         <v>853700</v>
       </c>
     </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1802100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I123"/>
+  <dimension ref="A1:I124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4683,6 +4683,41 @@
         <v>1802100</v>
       </c>
     </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I124" t="n">
+        <v>719200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I124"/>
+  <dimension ref="A1:I125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4718,6 +4718,41 @@
         <v>719200</v>
       </c>
     </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I125" t="n">
+        <v>840500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I125"/>
+  <dimension ref="A1:I126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4753,6 +4753,41 @@
         <v>840500</v>
       </c>
     </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I126" t="n">
+        <v>769800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I126"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4788,6 +4788,41 @@
         <v>769800</v>
       </c>
     </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1256100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I127"/>
+  <dimension ref="A1:I128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4823,6 +4823,41 @@
         <v>1256100</v>
       </c>
     </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I128" t="n">
+        <v>609500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I128"/>
+  <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4858,6 +4858,41 @@
         <v>609500</v>
       </c>
     </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1190700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I129"/>
+  <dimension ref="A1:I130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4893,6 +4893,41 @@
         <v>1190700</v>
       </c>
     </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I130" t="n">
+        <v>2315200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I130"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4928,6 +4928,41 @@
         <v>2315200</v>
       </c>
     </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="I131" t="n">
+        <v>593200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I131"/>
+  <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4963,6 +4963,41 @@
         <v>593200</v>
       </c>
     </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="I132" t="n">
+        <v>859800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I132"/>
+  <dimension ref="A1:I134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4998,6 +4998,76 @@
         <v>859800</v>
       </c>
     </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="I133" t="n">
+        <v>945900</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="I134" t="n">
+        <v>531600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I134"/>
+  <dimension ref="A1:I135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5068,6 +5068,41 @@
         <v>531600</v>
       </c>
     </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="I135" t="n">
+        <v>159800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I135"/>
+  <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5103,6 +5103,111 @@
         <v>159800</v>
       </c>
     </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="I136" t="n">
+        <v>497700</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="I137" t="n">
+        <v>542800</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I138" t="n">
+        <v>134100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I138"/>
+  <dimension ref="A1:I139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5208,6 +5208,41 @@
         <v>134100</v>
       </c>
     </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1333800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I139"/>
+  <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5243,6 +5243,41 @@
         <v>1333800</v>
       </c>
     </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="I140" t="n">
+        <v>246400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5293.xlsx
+++ b/data/5293.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I140"/>
+  <dimension ref="A1:I143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5278,6 +5278,111 @@
         <v>246400</v>
       </c>
     </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="I141" t="n">
+        <v>725100</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I142" t="n">
+        <v>200500</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I143" t="n">
+        <v>587200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
